--- a/field.xlsx
+++ b/field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\例題作成\5-2\提出20221010\プログラム集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA7DC8-1B7A-4472-81CE-39F898431D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EDD02-A744-4791-88C8-F51EDD4BA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="2160" windowWidth="26385" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31217,7 +31217,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u+OmagIyLtn33N4DTa6FIK3iJFLjuBKJb3EKvJ5qaMXSrhVU8SJa1Pu624JbXJz0XDIscsAlXGDr6bdKycQQbA==" saltValue="701h1+pAc9ZyLbj4zpJFxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34308,7 +34307,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="an9lN1YFL5Nd0geHsvQ1rcDUHR4xFHbnevSiKGu74CyRxoYO5HeOtu3hqHI+PMt2iterj2CkHLrdCoDV7/H5HQ==" saltValue="zowOOjPf7ghJQn3+fmeC5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
